--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 17C/PRUEBA_TEMPERATURA_6_17C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 17C/PRUEBA_TEMPERATURA_6_17C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,106 +73,118 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-10 01:45:02</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:46:02</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:47:03</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:48:03</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:49:04</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:50:05</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:51:05</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:52:06</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:53:06</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:54:07</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:55:08</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:56:08</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:57:09</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:58:09</t>
-  </si>
-  <si>
-    <t>2023-12-10 01:59:10</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:00:11</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:01:11</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:02:12</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:03:12</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:04:13</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:05:14</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:06:14</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:07:15</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:08:15</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:09:16</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:10:17</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:11:17</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:12:18</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:13:18</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:14:19</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:15:20</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:16:20</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:17:21</t>
-  </si>
-  <si>
-    <t>2023-12-10 02:18:22</t>
+    <t>2023-12-09 06:22:00</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:23:00</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:24:00</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:25:00</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:26:01</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:27:01</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:28:01</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:29:01</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:30:02</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:31:02</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:32:02</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:33:02</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:34:03</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:35:03</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:36:03</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:37:04</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:38:04</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:39:04</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:40:04</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:41:05</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:42:05</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:43:05</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:44:05</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:45:06</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:46:06</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:47:06</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:48:07</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:49:07</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:50:07</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:51:07</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:52:08</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:53:08</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:54:08</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:55:08</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:56:09</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:57:09</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:58:09</t>
+  </si>
+  <si>
+    <t>2023-12-09 06:59:09</t>
   </si>
 </sst>
 </file>
@@ -839,66 +851,66 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>25.279720279720198</c:v>
+                  <c:v>25.673076923076898</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24.361888111888099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.312937062936999</c:v>
+                  <c:v>23.444055944055901</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>23.0506993006993</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>22.3951048951049</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.263986013985999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21.870629370629299</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>21.6083916083915</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>21.477272727272599</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>21.215034965034899</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.083916083916002</c:v>
+                  <c:v>21.346153846153801</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>20.9527972027971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.9527972027971</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>20.5594405594405</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.5594405594405</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>20.690559440559401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.5594405594405</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>20.428321678321598</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.034965034965001</c:v>
+                  <c:v>20.428321678321598</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>20.297202797202701</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>20.166083916083799</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>20.034965034965001</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.166083916083799</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.034965034965001</c:v>
+                  <c:v>20.166083916083799</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20.034965034965001</c:v>
@@ -913,37 +925,49 @@
                   <c:v>20.166083916083799</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>20.034965034965001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20.166083916083799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20.166083916083799</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>19.9038461538461</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.034965034965001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19.641608391608301</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>19.772727272727199</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>19.772727272727199</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.166083916083799</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.854895104895</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>20.034965034965001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.034965034965001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.034965034965001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.034965034965001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.379370629370602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +1055,7 @@
         <c:axId val="465779280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="17"/>
+          <c:min val="19"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1200,37 +1224,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>19.772727272727199</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>20.166083916083799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.9038461538461</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.641608391608301</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.772727272727199</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>20.034965034965001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.9038461538461</c:v>
+                  <c:v>19.379370629370602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,10 +1351,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>19.915766052129626</c:v>
+                  <c:v>19.963445645263786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.915766052129626</c:v>
+                  <c:v>19.963445645263786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3101,17 +3125,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.279720279720198</v>
+        <v>25.673076923076898</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>9.814814809942618E-3</v>
+        <v>1.1157407410792075E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3134,8 +3158,8 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <f>COUNT(E:E)-2</f>
-        <v>32</v>
+        <f>COUNT(E:E)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3152,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.312937062936999</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3169,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.3951048951049</v>
+        <v>23.0506993006993</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3186,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.263986013985999</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3220,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>21.477272727272599</v>
+        <v>21.6083916083915</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3237,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>21.215034965034899</v>
+        <v>21.477272727272599</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3254,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>21.083916083916002</v>
+        <v>21.346153846153801</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3271,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.5594405594405</v>
+        <v>20.9527972027971</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3288,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.5594405594405</v>
+        <v>20.9527972027971</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3305,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.690559440559401</v>
+        <v>20.5594405594405</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3322,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.5594405594405</v>
+        <v>20.690559440559401</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3356,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.034965034965001</v>
+        <v>20.428321678321598</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3373,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.166083916083799</v>
+        <v>20.297202797202701</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3390,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>20.034965034965001</v>
+        <v>20.166083916083799</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3407,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.9038461538461</v>
+        <v>20.166083916083799</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3424,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.034965034965001</v>
+        <v>20.166083916083799</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3509,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.9038461538461</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3526,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>20.034965034965001</v>
+        <v>20.166083916083799</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3543,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>19.641608391608301</v>
+        <v>20.166083916083799</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3560,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>19.772727272727199</v>
+        <v>19.9038461538461</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3594,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>19.9038461538461</v>
+        <v>19.772727272727199</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>19.9038461538461</v>
+        <v>20.166083916083799</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3628,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>19.9038461538461</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3645,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>19.9038461538461</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3662,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>18.854895104895</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3680,6 +3704,74 @@
       </c>
       <c r="E35">
         <v>20.034965034965001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>20.034965034965001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>20.034965034965001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>20.034965034965001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>19.379370629370602</v>
       </c>
     </row>
   </sheetData>
@@ -3718,45 +3810,45 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:06:14</v>
+        <v>2023-12-09 06:49:07</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>19.9038461538461</v>
+        <v>20.034965034965001</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>19.915766052129626</v>
+        <v>19.963445645263786</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:07:15</v>
+        <v>2023-12-09 06:50:07</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>20.166083916083799</v>
+        <v>19.772727272727199</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>19.915766052129626</v>
+        <v>19.963445645263786</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:08:15</v>
+        <v>2023-12-09 06:51:07</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>19.9038461538461</v>
+        <v>20.166083916083799</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3765,7 +3857,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:09:16</v>
+        <v>2023-12-09 06:52:08</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
@@ -3773,27 +3865,27 @@
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.13694920486025325</v>
+        <v>0.21435941207244144</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:10:17</v>
+        <v>2023-12-09 06:53:08</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>19.641608391608301</v>
+        <v>20.034965034965001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:11:17</v>
+        <v>2023-12-09 06:54:08</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>19.772727272727199</v>
+        <v>20.034965034965001</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -3802,7 +3894,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:12:18</v>
+        <v>2023-12-09 06:55:08</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
@@ -3816,22 +3908,22 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:13:18</v>
+        <v>2023-12-09 06:56:09</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>19.9038461538461</v>
+        <v>20.034965034965001</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:14:19</v>
+        <v>2023-12-09 06:57:09</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>19.9038461538461</v>
+        <v>20.034965034965001</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3840,25 +3932,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:15:20</v>
+        <v>2023-12-09 06:58:09</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>19.9038461538461</v>
+        <v>20.034965034965001</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>19.641608391608301</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-10 02:16:20</v>
+        <v>2023-12-09 06:59:09</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>19.9038461538461</v>
+        <v>19.379370629370602</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -3892,8 +3984,8 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17">
-        <f>E14+0.6</f>
-        <v>17.600000000000001</v>
+        <f>E14+0.7</f>
+        <v>17.7</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
@@ -3903,8 +3995,8 @@
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20">
-        <f>E14-0.4</f>
-        <v>16.600000000000001</v>
+        <f>E14-0.7</f>
+        <v>16.3</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
